--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43331,6 +43331,41 @@
         <v>492400</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>665900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43366,6 +43366,41 @@
         <v>665900</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>2056600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43401,6 +43401,41 @@
         <v>2056600</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>491700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43436,6 +43436,41 @@
         <v>491700</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>1589000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,41 @@
         <v>1589000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>830100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43506,6 +43506,41 @@
         <v>830100</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>584500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,41 @@
         <v>584500</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>3275400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,41 @@
         <v>3275400</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>4728600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,41 @@
         <v>4728600</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>1755900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,41 @@
         <v>1755900</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>3734700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,41 @@
         <v>3734700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1298500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43716,6 +43716,41 @@
         <v>1298500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>744300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,76 @@
         <v>744300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>738000</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1647600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43821,6 +43821,76 @@
         <v>1647600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>484600</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>237100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43891,6 +43891,41 @@
         <v>237100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>368400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43926,6 +43926,41 @@
         <v>368400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>259200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43961,6 +43961,41 @@
         <v>259200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>156000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43996,6 +43996,41 @@
         <v>156000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>665500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44031,6 +44031,76 @@
         <v>665500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>278600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44101,6 +44101,41 @@
         <v>278600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>719200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44136,6 +44136,41 @@
         <v>719200</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>464800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2162"/>
+  <dimension ref="A1:I2163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76756,6 +76756,41 @@
         <v>464800</v>
       </c>
     </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2163" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2163" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2163" t="n">
+        <v>402600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2163"/>
+  <dimension ref="A1:I2164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76791,6 +76791,41 @@
         <v>402600</v>
       </c>
     </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2164" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2164" t="n">
+        <v>483400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2164"/>
+  <dimension ref="A1:I2165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76826,6 +76826,41 @@
         <v>483400</v>
       </c>
     </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2165" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2165" t="n">
+        <v>344200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2165"/>
+  <dimension ref="A1:I2166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76861,6 +76861,41 @@
         <v>344200</v>
       </c>
     </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2166" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2166" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2166" t="n">
+        <v>244400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2166"/>
+  <dimension ref="A1:I2167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76896,6 +76896,41 @@
         <v>244400</v>
       </c>
     </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2167" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2167" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2167" t="n">
+        <v>126500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2167"/>
+  <dimension ref="A1:I2168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76931,6 +76931,41 @@
         <v>126500</v>
       </c>
     </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2168" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2168" t="n">
+        <v>64500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2168"/>
+  <dimension ref="A1:I2169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76966,6 +76966,41 @@
         <v>64500</v>
       </c>
     </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2169" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2169" t="n">
+        <v>38300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2169"/>
+  <dimension ref="A1:I2170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77001,6 +77001,41 @@
         <v>38300</v>
       </c>
     </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2170" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2170" t="n">
+        <v>530400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2170"/>
+  <dimension ref="A1:I2171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77036,6 +77036,41 @@
         <v>530400</v>
       </c>
     </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2171" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2171" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2171"/>
+  <dimension ref="A1:I2172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77071,6 +77071,41 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2172" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2172" t="n">
+        <v>362500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2172"/>
+  <dimension ref="A1:I2173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77106,6 +77106,41 @@
         <v>362500</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>7200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2173"/>
+  <dimension ref="A1:I2174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77141,6 +77141,41 @@
         <v>7200</v>
       </c>
     </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>147200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2174"/>
+  <dimension ref="A1:I2175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77176,6 +77176,41 @@
         <v>147200</v>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>215300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2175"/>
+  <dimension ref="A1:I2176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77211,6 +77211,41 @@
         <v>215300</v>
       </c>
     </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>365400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2176"/>
+  <dimension ref="A1:I2177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77246,6 +77246,41 @@
         <v>365400</v>
       </c>
     </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>656600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2462"/>
+  <dimension ref="A1:I2463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87256,6 +87256,41 @@
         <v>656600</v>
       </c>
     </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2463" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2463" t="n">
+        <v>188200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2463"/>
+  <dimension ref="A1:I2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87291,6 +87291,41 @@
         <v>188200</v>
       </c>
     </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2464" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2464" t="n">
+        <v>546900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2464"/>
+  <dimension ref="A1:I2465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87326,6 +87326,41 @@
         <v>546900</v>
       </c>
     </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2465" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2465" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2465" t="n">
+        <v>3331700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2465"/>
+  <dimension ref="A1:I2466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87361,6 +87361,41 @@
         <v>3331700</v>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2466" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2466" t="n">
+        <v>1143500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2466"/>
+  <dimension ref="A1:I2467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87396,6 +87396,41 @@
         <v>1143500</v>
       </c>
     </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2467" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2467" t="n">
+        <v>360800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2467"/>
+  <dimension ref="A1:I2468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87431,6 +87431,41 @@
         <v>360800</v>
       </c>
     </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2468" t="n">
+        <v>305100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2468"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87466,6 +87466,41 @@
         <v>305100</v>
       </c>
     </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2469" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2469" t="n">
+        <v>799900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2469"/>
+  <dimension ref="A1:I2470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87501,6 +87501,41 @@
         <v>799900</v>
       </c>
     </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2470" t="n">
+        <v>617000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2470"/>
+  <dimension ref="A1:I2471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87536,6 +87536,41 @@
         <v>617000</v>
       </c>
     </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2471" t="n">
+        <v>392800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2471"/>
+  <dimension ref="A1:I2472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87571,6 +87571,41 @@
         <v>392800</v>
       </c>
     </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>867300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2472"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87606,6 +87606,76 @@
         <v>867300</v>
       </c>
     </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>521500</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>295200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87676,6 +87676,41 @@
         <v>295200</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>939600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87711,6 +87711,111 @@
         <v>939600</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>339400</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>605900</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2478" t="n">
+        <v>8518800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87816,6 +87816,41 @@
         <v>8518800</v>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2479" t="n">
+        <v>7930500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87851,6 +87851,41 @@
         <v>7930500</v>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>12101700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7239.xlsx
+++ b/data/7239.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87886,6 +87886,111 @@
         <v>12101700</v>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>2557800</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2482" t="n">
+        <v>1387000</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>SCNWOLF</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2483" t="n">
+        <v>1972200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
